--- a/biology/Zoologie/Isoctenus_guadalupei/Isoctenus_guadalupei.xlsx
+++ b/biology/Zoologie/Isoctenus_guadalupei/Isoctenus_guadalupei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isoctenus guadalupei est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isoctenus guadalupei est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Argentine[1]. Elle se rencontre dans les provinces de Santa Fé et de Corrientes [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Argentine. Elle se rencontre dans les provinces de Santa Fé et de Corrientes .
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 12 mm[3].
-Le mâle décrit par Polotow et Brescovit en 2019 mesure 10,20 mm et la femelle 11,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 12 mm.
+Le mâle décrit par Polotow et Brescovit en 2019 mesure 10,20 mm et la femelle 11,60 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Guadalupe Norte.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mello-Leitão, 1941 : Las arañas de la provincia de Santa Fe colectadas por el Profesor Birabén. Revista del Museo de La Plata (N.S., Zoología), vol. 2, p. 199-225.</t>
         </is>
